--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 9 (0, 6, 9, 24, 32)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(0, 6, 9, 24, 32)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>3.512183548919304E-09</v>
+        <v>7.207512075506461E-10</v>
       </c>
       <c r="E2">
-        <v>3.512183548919304E-09</v>
+        <v>7.207512075506461E-10</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.00208988490697698</v>
+        <v>3.341207309038588E-05</v>
       </c>
       <c r="E3">
-        <v>0.00208988490697698</v>
+        <v>3.341207309038588E-05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.993178009419512</v>
+        <v>0.1225870191204658</v>
       </c>
       <c r="E4">
-        <v>0.993178009419512</v>
+        <v>0.1225870191204658</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9999982110861073</v>
+        <v>0.9999873609829134</v>
       </c>
       <c r="E5">
-        <v>0.9999982110861073</v>
+        <v>0.9999873609829134</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9999999999917759</v>
+        <v>0.9999999998212981</v>
       </c>
       <c r="E6">
-        <v>0.9999999999917759</v>
+        <v>0.9999999998212981</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9477493729609869</v>
+        <v>0.5278789314385657</v>
       </c>
       <c r="E8">
-        <v>0.05225062703901306</v>
+        <v>0.4721210685614343</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999986762420734</v>
+        <v>0.999999970955868</v>
       </c>
       <c r="E9">
-        <v>1.323757926607882E-06</v>
+        <v>2.904413198834277E-08</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>5.686660058327177E-24</v>
+        <v>5.428819304239419E-22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.900070390281526E-42</v>
+        <v>1.745251430907637E-25</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>19.33918190002441</v>
+        <v>14.04665946960449</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
